--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Intl-Alcohol.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Intl-Alcohol.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwinchester\Documents\ShipWorks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,16 +15,16 @@
     <sheet name="US Exp Intl-Alcohol" sheetId="27" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US Exp Intl-Alcohol'!$AA$1:$AA$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US Exp Intl-Alcohol'!$Z$1:$Z$6</definedName>
     <definedName name="_lu1">#REF!</definedName>
     <definedName name="_lu2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="169">
   <si>
     <t>FEDEX BUSINESS</t>
   </si>
@@ -529,12 +529,15 @@
   <si>
     <t xml:space="preserve">REVENUE 
 </t>
+  </si>
+  <si>
+    <t>SaveLabel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -747,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -925,19 +928,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -993,15 +983,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1395,7 +1376,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1406,7 +1387,7 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1424,34 +1405,34 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="194" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1475,33 +1456,27 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="15" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="14" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1518,66 +1493,63 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="14" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="13" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="87" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1589,16 +1561,16 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2071,23 +2043,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2123,23 +2078,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2319,1145 +2257,1146 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:DH6"/>
+  <dimension ref="A1:DG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C19" sqref="C19:D19"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" customWidth="1"/>
-    <col min="23" max="23" width="24" customWidth="1"/>
-    <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="15" customWidth="1"/>
-    <col min="26" max="26" width="26" customWidth="1"/>
-    <col min="27" max="29" width="30.7109375" customWidth="1"/>
-    <col min="30" max="30" width="17.5703125" customWidth="1"/>
-    <col min="31" max="31" width="26.5703125" customWidth="1"/>
-    <col min="32" max="32" width="42.42578125" customWidth="1"/>
-    <col min="33" max="36" width="38.28515625" customWidth="1"/>
-    <col min="37" max="37" width="28" customWidth="1"/>
-    <col min="38" max="38" width="17.28515625" customWidth="1"/>
-    <col min="39" max="39" width="24" customWidth="1"/>
-    <col min="40" max="41" width="17.28515625" customWidth="1"/>
-    <col min="42" max="43" width="21.28515625" customWidth="1"/>
-    <col min="44" max="46" width="23.140625" customWidth="1"/>
-    <col min="47" max="47" width="24.42578125" customWidth="1"/>
-    <col min="48" max="48" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="24.42578125" customWidth="1"/>
-    <col min="51" max="53" width="26.28515625" customWidth="1"/>
-    <col min="54" max="54" width="44" customWidth="1"/>
-    <col min="55" max="55" width="27.85546875" customWidth="1"/>
-    <col min="59" max="60" width="22.140625" customWidth="1"/>
-    <col min="61" max="62" width="26.28515625" customWidth="1"/>
-    <col min="63" max="63" width="31.85546875" customWidth="1"/>
-    <col min="64" max="64" width="19" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19" customWidth="1"/>
-    <col min="66" max="66" width="26.28515625" customWidth="1"/>
-    <col min="67" max="68" width="27.7109375" customWidth="1"/>
-    <col min="69" max="69" width="20" customWidth="1"/>
-    <col min="70" max="71" width="18.140625" customWidth="1"/>
-    <col min="72" max="72" width="15" customWidth="1"/>
-    <col min="73" max="73" width="20.42578125" customWidth="1"/>
-    <col min="74" max="74" width="19.7109375" customWidth="1"/>
-    <col min="75" max="75" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="22" customWidth="1"/>
-    <col min="77" max="78" width="19.5703125" customWidth="1"/>
-    <col min="79" max="79" width="21.28515625" customWidth="1"/>
-    <col min="80" max="80" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="82" width="27.7109375" customWidth="1"/>
-    <col min="83" max="83" width="22" customWidth="1"/>
-    <col min="84" max="85" width="27.85546875" customWidth="1"/>
-    <col min="86" max="86" width="22" customWidth="1"/>
-    <col min="87" max="88" width="18.7109375" customWidth="1"/>
-    <col min="89" max="89" width="25.28515625" customWidth="1"/>
-    <col min="90" max="90" width="19.42578125" customWidth="1"/>
-    <col min="91" max="91" width="23.42578125" customWidth="1"/>
-    <col min="92" max="92" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="18.7109375" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="16" bestFit="1" customWidth="1"/>
-    <col min="97" max="98" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="32" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="23.140625" customWidth="1"/>
-    <col min="105" max="105" width="20" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="16" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="24" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="13" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.85546875" customWidth="1"/>
-    <col min="113" max="16384" width="9.140625" style="60"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="24" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="25" max="25" width="26" customWidth="1"/>
+    <col min="26" max="28" width="30.7109375" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" customWidth="1"/>
+    <col min="30" max="30" width="26.5703125" customWidth="1"/>
+    <col min="31" max="31" width="42.42578125" customWidth="1"/>
+    <col min="32" max="35" width="38.28515625" customWidth="1"/>
+    <col min="36" max="36" width="28" customWidth="1"/>
+    <col min="37" max="37" width="17.28515625" customWidth="1"/>
+    <col min="38" max="38" width="24" customWidth="1"/>
+    <col min="39" max="40" width="17.28515625" customWidth="1"/>
+    <col min="41" max="42" width="21.28515625" customWidth="1"/>
+    <col min="43" max="45" width="23.140625" customWidth="1"/>
+    <col min="46" max="46" width="24.42578125" customWidth="1"/>
+    <col min="47" max="47" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="24.42578125" customWidth="1"/>
+    <col min="50" max="52" width="26.28515625" customWidth="1"/>
+    <col min="53" max="53" width="44" customWidth="1"/>
+    <col min="54" max="54" width="27.85546875" customWidth="1"/>
+    <col min="58" max="59" width="22.140625" customWidth="1"/>
+    <col min="60" max="61" width="26.28515625" customWidth="1"/>
+    <col min="62" max="62" width="31.85546875" customWidth="1"/>
+    <col min="63" max="63" width="19" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19" customWidth="1"/>
+    <col min="65" max="65" width="26.28515625" customWidth="1"/>
+    <col min="66" max="67" width="27.7109375" customWidth="1"/>
+    <col min="68" max="68" width="20" customWidth="1"/>
+    <col min="69" max="70" width="18.140625" customWidth="1"/>
+    <col min="71" max="71" width="15" customWidth="1"/>
+    <col min="72" max="72" width="20.42578125" customWidth="1"/>
+    <col min="73" max="73" width="19.7109375" customWidth="1"/>
+    <col min="74" max="74" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="22" customWidth="1"/>
+    <col min="76" max="77" width="19.5703125" customWidth="1"/>
+    <col min="78" max="78" width="21.28515625" customWidth="1"/>
+    <col min="79" max="79" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="27.7109375" customWidth="1"/>
+    <col min="82" max="82" width="22" customWidth="1"/>
+    <col min="83" max="84" width="27.85546875" customWidth="1"/>
+    <col min="85" max="85" width="22" customWidth="1"/>
+    <col min="86" max="87" width="18.7109375" customWidth="1"/>
+    <col min="88" max="88" width="25.28515625" customWidth="1"/>
+    <col min="89" max="89" width="19.42578125" customWidth="1"/>
+    <col min="90" max="90" width="23.42578125" customWidth="1"/>
+    <col min="91" max="91" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="16" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="32" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="23.140625" customWidth="1"/>
+    <col min="104" max="104" width="20" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="24" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="8.85546875" customWidth="1"/>
+    <col min="112" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" s="49" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
+    <row r="1" spans="1:108" s="46" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="K1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="L1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="O1" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="P1" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="Q1" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="R1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="S1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="T1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="U1" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="V1" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="W1" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="X1" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Y1" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="Z1" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AA1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AB1" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AC1" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AD1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AE1" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AF1" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="AH1" s="45" t="s">
+      <c r="AG1" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="AI1" s="46" t="s">
+      <c r="AH1" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AJ1" s="46" t="s">
+      <c r="AI1" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AK1" s="46" t="s">
+      <c r="AJ1" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="AL1" s="46" t="s">
+      <c r="AK1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AM1" s="46" t="s">
+      <c r="AL1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AN1" s="46" t="s">
+      <c r="AM1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AO1" s="46" t="s">
+      <c r="AN1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AP1" s="46" t="s">
+      <c r="AO1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AQ1" s="44" t="s">
+      <c r="AP1" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="AR1" s="44" t="s">
+      <c r="AQ1" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="AS1" s="44" t="s">
+      <c r="AR1" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="AT1" s="44" t="s">
+      <c r="AS1" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="AU1" s="44" t="s">
+      <c r="AT1" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="AV1" s="44" t="s">
+      <c r="AU1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="AW1" s="44" t="s">
+      <c r="AV1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="AX1" s="44" t="s">
+      <c r="AW1" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="AY1" s="44" t="s">
+      <c r="AX1" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="AZ1" s="43" t="s">
+      <c r="AY1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="BA1" s="43" t="s">
+      <c r="AZ1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="BB1" s="43" t="s">
+      <c r="BA1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="BC1" s="44" t="s">
+      <c r="BB1" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="BD1" s="44" t="s">
+      <c r="BC1" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="BE1" s="47" t="s">
+      <c r="BD1" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="BF1" s="47" t="s">
+      <c r="BE1" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="BG1" s="44" t="s">
+      <c r="BF1" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="BH1" s="44" t="s">
+      <c r="BG1" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="BI1" s="44" t="s">
+      <c r="BH1" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="BJ1" s="43" t="s">
+      <c r="BI1" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="BK1" s="43" t="s">
+      <c r="BJ1" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="BL1" s="43" t="s">
+      <c r="BK1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="BM1" s="43" t="s">
+      <c r="BL1" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="BN1" s="43" t="s">
+      <c r="BM1" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="BO1" s="43" t="s">
+      <c r="BN1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="BP1" s="43" t="s">
+      <c r="BO1" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="BQ1" s="43" t="s">
+      <c r="BP1" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="BR1" s="43" t="s">
+      <c r="BQ1" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="BS1" s="44" t="s">
+      <c r="BR1" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="BT1" s="44" t="s">
+      <c r="BS1" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="BU1" s="44" t="s">
+      <c r="BT1" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="BV1" s="44" t="s">
+      <c r="BU1" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="BW1" s="44" t="s">
+      <c r="BV1" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="BX1" s="44" t="s">
+      <c r="BW1" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="BY1" s="44" t="s">
+      <c r="BX1" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="BZ1" s="44" t="s">
+      <c r="BY1" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="CA1" s="44" t="s">
+      <c r="BZ1" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="CB1" s="44" t="s">
+      <c r="CA1" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="CC1" s="44" t="s">
+      <c r="CB1" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="CD1" s="44" t="s">
+      <c r="CC1" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="CE1" s="44" t="s">
+      <c r="CD1" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="CF1" s="44" t="s">
+      <c r="CE1" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="CG1" s="44" t="s">
+      <c r="CF1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="CH1" s="44" t="s">
+      <c r="CG1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="CI1" s="44" t="s">
+      <c r="CH1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="CJ1" s="44" t="s">
+      <c r="CI1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="CK1" s="44" t="s">
+      <c r="CJ1" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="CL1" s="44" t="s">
+      <c r="CK1" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="CM1" s="44" t="s">
+      <c r="CL1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="CN1" s="44" t="s">
+      <c r="CM1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="CO1" s="44" t="s">
+      <c r="CN1" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="CP1" s="44" t="s">
+      <c r="CO1" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="CQ1" s="44" t="s">
+      <c r="CP1" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="CR1" s="44" t="s">
+      <c r="CQ1" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="CS1" s="44" t="s">
+      <c r="CR1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="CT1" s="44" t="s">
+      <c r="CS1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="CU1" s="44" t="s">
+      <c r="CT1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="CV1" s="44" t="s">
+      <c r="CU1" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="CW1" s="44" t="s">
+      <c r="CV1" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="CX1" s="44" t="s">
+      <c r="CW1" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="CY1" s="44" t="s">
+      <c r="CX1" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="CZ1" s="44" t="s">
+      <c r="CY1" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="DA1" s="44" t="s">
+      <c r="CZ1" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="DB1" s="44" t="s">
+      <c r="DA1" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="DC1" s="44" t="s">
+      <c r="DB1" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="DD1" s="44" t="s">
+      <c r="DC1" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="DE1" s="44" t="s">
+      <c r="DD1" s="42" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:109" s="8" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="36" t="s">
+    <row r="2" spans="1:108" s="8" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="34" t="s">
         <v>110</v>
       </c>
+      <c r="D2" s="34"/>
       <c r="E2" s="36"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="L2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="M2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="O2" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="P2" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="Q2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="R2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="S2" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="T2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="36" t="s">
+      <c r="U2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="V2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="W2" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="X2" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Y2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="Z2" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" s="62" t="s">
+      <c r="AA2" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="63" t="s">
+      <c r="AB2" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="63" t="s">
+      <c r="AC2" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="AE2" s="36" t="s">
+      <c r="AD2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="36" t="s">
+      <c r="AE2" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="36" t="s">
+      <c r="AF2" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="39" t="s">
+      <c r="AG2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="36" t="s">
+      <c r="AH2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="36" t="s">
+      <c r="AI2" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" s="36" t="s">
+      <c r="AJ2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AL2" s="36" t="s">
+      <c r="AK2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" s="36" t="s">
+      <c r="AL2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="36" t="s">
+      <c r="AM2" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="AO2" s="39" t="s">
+      <c r="AN2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="AP2" s="39" t="s">
+      <c r="AO2" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="AQ2" s="39" t="s">
+      <c r="AP2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AR2" s="39" t="s">
+      <c r="AQ2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AS2" s="36" t="s">
+      <c r="AR2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AT2" s="36" t="s">
+      <c r="AS2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="AU2" s="36" t="s">
+      <c r="AT2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="36" t="s">
+      <c r="AU2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="AW2" s="36" t="s">
+      <c r="AV2" s="34" t="s">
         <v>68</v>
       </c>
+      <c r="AW2" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="AX2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY2" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB2" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE2" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF2" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG2" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH2" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN2" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO2" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="BP2" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ2" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR2" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU2" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="BX2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="BY2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="BZ2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="CA2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="CB2" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="CD2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB2" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC2" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD2" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE2" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG2" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH2" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI2" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ2" s="36" t="s">
+      <c r="CE2" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF2" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="CG2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="CH2" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="CI2" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="CK2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="BK2" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL2" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM2" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="BN2" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="BO2" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="BP2" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="BQ2" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="BR2" s="64" t="s">
+      <c r="CL2" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="CM2" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="CN2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="CO2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="CP2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="CQ2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="CR2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CS2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT2" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="CU2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="CV2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="CX2" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="CY2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="CZ2" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="DA2" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="DB2" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="DC2" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="DD2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="BS2" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT2" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="BU2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV2" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW2" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="BX2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="BY2" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="BZ2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="CA2" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="CB2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="CC2" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="CE2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="CF2" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="CG2" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="CH2" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="CI2" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="CJ2" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="CK2" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="CL2" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="CM2" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="CN2" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="CO2" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="CP2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="CQ2" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="CR2" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="CS2" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="CT2" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="CU2" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="CV2" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="CW2" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="CY2" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="CZ2" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="DA2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="DB2" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="DC2" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="DD2" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="DE2" s="41" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="3" spans="1:109" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="1" t="b">
+    <row r="3" spans="1:108" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="52">
+      <c r="F3" s="49">
         <v>413111</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="H3" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="J3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="L3" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="M3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="10">
+        <v>413111</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="U3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>605517846</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="10">
-        <v>413111</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>605517846</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
+      <c r="AF3" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="AG3" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH3" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
       <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
+      <c r="AK3" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="AL3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="AM3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AN3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AO3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="AQ3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY3" s="10">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="11">
+        <v>50</v>
+      </c>
+      <c r="BJ3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL3" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM3" s="54">
+        <v>12345678</v>
+      </c>
+      <c r="BN3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO3" s="12">
+        <v>214877600</v>
+      </c>
+      <c r="BP3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="BQ3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BT3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW3" s="12">
+        <v>100</v>
+      </c>
+      <c r="BX3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BY3" s="12">
+        <v>50</v>
+      </c>
+      <c r="BZ3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA3" s="12">
+        <v>25</v>
+      </c>
+      <c r="CB3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE3" s="12"/>
+      <c r="CF3" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI3" s="12"/>
+      <c r="CJ3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AR3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV3" s="10" t="s">
+      <c r="CL3" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AW3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY3" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ3" s="10">
-        <v>2</v>
-      </c>
-      <c r="BA3" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="55"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="54"/>
-      <c r="BH3" s="54"/>
-      <c r="BI3" s="54"/>
-      <c r="BJ3" s="11">
-        <v>50</v>
-      </c>
-      <c r="BK3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM3" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN3" s="57">
-        <v>12345678</v>
-      </c>
-      <c r="BO3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="BP3" s="12">
-        <v>214877600</v>
-      </c>
-      <c r="BQ3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="BR3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="BS3" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="BT3" s="12" t="s">
+      <c r="CO3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="BU3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="BV3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="BX3" s="12">
-        <v>100</v>
-      </c>
-      <c r="BY3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="BZ3" s="12">
-        <v>50</v>
-      </c>
-      <c r="CA3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="CB3" s="12">
-        <v>25</v>
-      </c>
-      <c r="CC3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="CF3" s="12"/>
-      <c r="CG3" s="12">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="CJ3" s="12"/>
-      <c r="CK3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="CL3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM3" s="12">
-        <v>1</v>
-      </c>
-      <c r="CN3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="CP3" s="12" t="s">
+      <c r="CQ3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="CQ3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="CR3" s="12" t="s">
-        <v>3</v>
-      </c>
+      <c r="CR3" s="12"/>
       <c r="CS3" s="12"/>
       <c r="CT3" s="12"/>
-      <c r="CU3" s="12"/>
-      <c r="CV3" s="12" t="s">
+      <c r="CU3" s="12" t="s">
         <v>92</v>
       </c>
+      <c r="CV3" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="CW3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="CX3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="CY3" s="58"/>
-      <c r="CZ3" s="58"/>
-      <c r="DA3" s="58"/>
-      <c r="DB3" s="58"/>
-      <c r="DC3" s="58"/>
-      <c r="DD3" s="58"/>
-      <c r="DE3" s="59"/>
+      <c r="CX3" s="55"/>
+      <c r="CY3" s="55"/>
+      <c r="CZ3" s="55"/>
+      <c r="DA3" s="55"/>
+      <c r="DB3" s="55"/>
+      <c r="DC3" s="55"/>
+      <c r="DD3" s="56"/>
     </row>
-    <row r="4" spans="1:109" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="b">
+    <row r="4" spans="1:108" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="20" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="21">
+      <c r="F4" s="21">
         <v>413129</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="H4" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="I4" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="L4" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="M4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="14">
+        <v>413129</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="14" t="s">
+      <c r="U4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="14">
+        <v>1820</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="14">
-        <v>413129</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="X4" s="14" t="s">
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>9012633035</v>
+      </c>
+      <c r="AK4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN4" s="22">
+        <v>1820</v>
+      </c>
+      <c r="AO4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="14">
-        <v>1820</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AP4" s="14">
+        <v>169</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR4" s="14">
         <v>15</v>
-      </c>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG4" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK4" s="14">
-        <v>9012633035</v>
-      </c>
-      <c r="AL4" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN4" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO4" s="22">
-        <v>1820</v>
-      </c>
-      <c r="AP4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ4" s="14">
-        <v>169</v>
-      </c>
-      <c r="AR4" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="AS4" s="14">
         <v>15</v>
@@ -3465,271 +3404,271 @@
       <c r="AT4" s="14">
         <v>15</v>
       </c>
-      <c r="AU4" s="14">
+      <c r="AU4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV4" s="15">
+        <v>100</v>
+      </c>
+      <c r="AW4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX4" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="25"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI4" s="15">
+        <v>169</v>
+      </c>
+      <c r="BJ4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL4" s="26"/>
+      <c r="BM4" s="26"/>
+      <c r="BN4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="BO4" s="16">
+        <v>222326460</v>
+      </c>
+      <c r="BP4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BQ4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AV4" s="14" t="s">
+      <c r="BR4" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AW4" s="15">
+      <c r="BT4" s="16">
         <v>100</v>
       </c>
-      <c r="AX4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY4" s="15" t="s">
+      <c r="BU4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW4" s="16">
+        <v>100</v>
+      </c>
+      <c r="BX4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BY4" s="16">
+        <v>50</v>
+      </c>
+      <c r="BZ4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA4" s="16">
+        <v>25</v>
+      </c>
+      <c r="CB4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="AZ4" s="14">
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16">
         <v>1</v>
       </c>
-      <c r="BA4" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="23"/>
-      <c r="BH4" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ4" s="15">
+      <c r="CG4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI4" s="16"/>
+      <c r="CJ4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK4" s="14">
         <v>169</v>
       </c>
-      <c r="BK4" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM4" s="26"/>
-      <c r="BN4" s="26"/>
-      <c r="BO4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="BP4" s="16">
-        <v>222326460</v>
-      </c>
-      <c r="BQ4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="BR4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="BS4" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="BT4" s="16" t="s">
+      <c r="CL4" s="16">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="BU4" s="16">
+      <c r="CO4" s="16">
         <v>100</v>
       </c>
-      <c r="BV4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="16" t="s">
+      <c r="CP4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="BX4" s="16">
+      <c r="CQ4" s="16">
         <v>100</v>
       </c>
-      <c r="BY4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="BZ4" s="16">
-        <v>50</v>
-      </c>
-      <c r="CA4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="CB4" s="16">
-        <v>25</v>
-      </c>
-      <c r="CC4" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE4" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="CF4" s="16"/>
-      <c r="CG4" s="16">
-        <v>1</v>
-      </c>
-      <c r="CH4" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="CJ4" s="16"/>
-      <c r="CK4" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="CL4" s="14">
-        <v>169</v>
-      </c>
-      <c r="CM4" s="16">
-        <v>1</v>
-      </c>
-      <c r="CN4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="CP4" s="16">
-        <v>100</v>
-      </c>
-      <c r="CQ4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="CR4" s="16">
-        <v>100</v>
-      </c>
+      <c r="CR4" s="16"/>
       <c r="CS4" s="16"/>
       <c r="CT4" s="16"/>
-      <c r="CU4" s="16"/>
-      <c r="CV4" s="16" t="s">
+      <c r="CU4" s="16" t="s">
         <v>92</v>
       </c>
+      <c r="CV4" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="CW4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="CX4" s="15" t="s">
         <v>117</v>
       </c>
+      <c r="CX4" s="2"/>
       <c r="CY4" s="2"/>
       <c r="CZ4" s="2"/>
       <c r="DA4" s="2"/>
       <c r="DB4" s="2"/>
       <c r="DC4" s="2"/>
-      <c r="DD4" s="2"/>
-      <c r="DE4" s="3"/>
+      <c r="DD4" s="3"/>
     </row>
-    <row r="5" spans="1:109" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="b">
+    <row r="5" spans="1:108" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="20" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="21">
+      <c r="F5" s="21">
         <v>413144</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="H5" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="I5" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="J5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="L5" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="M5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="14">
+        <v>413144</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="14" t="s">
+      <c r="U5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="14">
-        <v>413144</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
+      <c r="AF5" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="AG5" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH5" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
       <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
+      <c r="AK5" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="AL5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="AM5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AN5" s="14" t="s">
+      <c r="AN5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AO5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14">
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14">
         <v>129</v>
       </c>
-      <c r="AR5" s="14" t="s">
+      <c r="AQ5" s="14" t="s">
         <v>85</v>
+      </c>
+      <c r="AR5" s="14">
+        <v>15</v>
       </c>
       <c r="AS5" s="14">
         <v>15</v>
@@ -3737,425 +3676,422 @@
       <c r="AT5" s="14">
         <v>15</v>
       </c>
-      <c r="AU5" s="14">
-        <v>15</v>
-      </c>
-      <c r="AV5" s="14" t="s">
+      <c r="AU5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AW5" s="15">
+      <c r="AV5" s="15">
         <v>100</v>
       </c>
+      <c r="AW5" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="AX5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY5" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="AZ5" s="14">
+      <c r="AY5" s="14">
         <v>1</v>
       </c>
+      <c r="AZ5" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="BA5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB5" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="25"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="23"/>
       <c r="BG5" s="23"/>
       <c r="BH5" s="23"/>
-      <c r="BI5" s="23"/>
-      <c r="BJ5" s="15">
+      <c r="BI5" s="15">
         <v>129</v>
       </c>
+      <c r="BJ5" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="BK5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL5" s="26"/>
+      <c r="BM5" s="26"/>
+      <c r="BN5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="BO5" s="16">
+        <v>222326460</v>
+      </c>
+      <c r="BP5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BQ5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BT5" s="16">
+        <v>100</v>
+      </c>
+      <c r="BU5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW5" s="16">
+        <v>100</v>
+      </c>
+      <c r="BX5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BY5" s="16">
+        <v>50</v>
+      </c>
+      <c r="BZ5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA5" s="16">
+        <v>25</v>
+      </c>
+      <c r="CB5" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="BL5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM5" s="26"/>
-      <c r="BN5" s="26"/>
-      <c r="BO5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="BP5" s="16">
-        <v>222326460</v>
-      </c>
-      <c r="BQ5" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="BR5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="BS5" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="BT5" s="16" t="s">
+      <c r="CK5" s="14">
+        <v>129</v>
+      </c>
+      <c r="CL5" s="16">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="BU5" s="16">
+      <c r="CO5" s="16">
         <v>100</v>
       </c>
-      <c r="BV5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="16" t="s">
+      <c r="CP5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="BX5" s="16">
+      <c r="CQ5" s="16">
         <v>100</v>
       </c>
-      <c r="BY5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="BZ5" s="16">
-        <v>50</v>
-      </c>
-      <c r="CA5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="CB5" s="16">
-        <v>25</v>
-      </c>
-      <c r="CC5" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE5" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="CF5" s="16"/>
-      <c r="CG5" s="16">
-        <v>1</v>
-      </c>
-      <c r="CH5" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="CJ5" s="16"/>
-      <c r="CK5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="CL5" s="14">
-        <v>129</v>
-      </c>
-      <c r="CM5" s="16">
-        <v>1</v>
-      </c>
-      <c r="CN5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="CP5" s="16">
-        <v>100</v>
-      </c>
-      <c r="CQ5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="CR5" s="16">
-        <v>100</v>
-      </c>
+      <c r="CR5" s="16"/>
       <c r="CS5" s="16"/>
       <c r="CT5" s="16"/>
-      <c r="CU5" s="16"/>
-      <c r="CV5" s="16" t="s">
+      <c r="CU5" s="16" t="s">
         <v>92</v>
       </c>
+      <c r="CV5" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="CW5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="CX5" s="15" t="s">
         <v>117</v>
       </c>
+      <c r="CX5" s="2"/>
       <c r="CY5" s="2"/>
       <c r="CZ5" s="2"/>
       <c r="DA5" s="2"/>
       <c r="DB5" s="2"/>
       <c r="DC5" s="2"/>
-      <c r="DD5" s="2"/>
-      <c r="DE5" s="3"/>
+      <c r="DD5" s="3"/>
     </row>
-    <row r="6" spans="1:109" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="b">
+    <row r="6" spans="1:108" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="28">
+      <c r="F6" s="28">
         <v>413194</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>80</v>
       </c>
+      <c r="H6" s="30" t="s">
+        <v>87</v>
+      </c>
       <c r="I6" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="J6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>8</v>
       </c>
+      <c r="L6" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="M6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="19">
+        <v>413194</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="19" t="s">
+      <c r="U6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>150067600</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="19">
-        <v>413194</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB6" s="19">
-        <v>150067600</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
+      <c r="AF6" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="AG6" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH6" s="19" t="s">
         <v>10</v>
       </c>
+      <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
       <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
+      <c r="AK6" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="AL6" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AM6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AN6" s="19" t="s">
+      <c r="AN6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AO6" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19">
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19">
         <v>25</v>
       </c>
-      <c r="AR6" s="19" t="s">
+      <c r="AQ6" s="19" t="s">
         <v>85</v>
       </c>
+      <c r="AR6" s="19">
+        <v>20</v>
+      </c>
       <c r="AS6" s="19">
+        <v>15</v>
+      </c>
+      <c r="AT6" s="19">
         <v>20</v>
       </c>
-      <c r="AT6" s="19">
-        <v>15</v>
-      </c>
-      <c r="AU6" s="19">
-        <v>20</v>
-      </c>
-      <c r="AV6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AW6" s="18">
+      <c r="AV6" s="18">
         <v>100</v>
       </c>
+      <c r="AW6" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="AX6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY6" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AZ6" s="19">
+      <c r="AY6" s="19">
         <v>1</v>
       </c>
+      <c r="AZ6" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="BA6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="BB6" s="19" t="s">
         <v>28</v>
       </c>
+      <c r="BB6" s="19"/>
       <c r="BC6" s="19"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="31"/>
-      <c r="BF6" s="32"/>
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="30"/>
       <c r="BG6" s="30"/>
       <c r="BH6" s="30"/>
-      <c r="BI6" s="30"/>
-      <c r="BJ6" s="18">
+      <c r="BI6" s="18">
         <v>25</v>
       </c>
+      <c r="BJ6" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="BK6" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL6" s="33"/>
+      <c r="BM6" s="33"/>
+      <c r="BN6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO6" s="17">
+        <v>601725266</v>
+      </c>
+      <c r="BP6" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="BQ6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="BS6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="BT6" s="17">
+        <v>100</v>
+      </c>
+      <c r="BU6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW6" s="17">
+        <v>100</v>
+      </c>
+      <c r="BX6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="BY6" s="17">
+        <v>50</v>
+      </c>
+      <c r="BZ6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="CA6" s="17">
+        <v>25</v>
+      </c>
+      <c r="CB6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE6" s="17"/>
+      <c r="CF6" s="17">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI6" s="17"/>
+      <c r="CJ6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="BL6" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="BM6" s="33"/>
-      <c r="BN6" s="33"/>
-      <c r="BO6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="BP6" s="17">
-        <v>601725266</v>
-      </c>
-      <c r="BQ6" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="BR6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="BS6" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="BT6" s="17" t="s">
+      <c r="CK6" s="19">
+        <v>25</v>
+      </c>
+      <c r="CL6" s="17">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="BU6" s="17">
+      <c r="CO6" s="17">
         <v>100</v>
       </c>
-      <c r="BV6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="17" t="s">
+      <c r="CP6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="BX6" s="17">
+      <c r="CQ6" s="17">
         <v>100</v>
       </c>
-      <c r="BY6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="BZ6" s="17">
-        <v>50</v>
-      </c>
-      <c r="CA6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="CB6" s="17">
-        <v>25</v>
-      </c>
-      <c r="CC6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE6" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="CF6" s="17"/>
-      <c r="CG6" s="17">
-        <v>1</v>
-      </c>
-      <c r="CH6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="CJ6" s="17"/>
-      <c r="CK6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="CL6" s="19">
-        <v>25</v>
-      </c>
-      <c r="CM6" s="17">
-        <v>1</v>
-      </c>
-      <c r="CN6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="CP6" s="17">
-        <v>100</v>
-      </c>
-      <c r="CQ6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="CR6" s="17">
-        <v>100</v>
-      </c>
+      <c r="CR6" s="17"/>
       <c r="CS6" s="17"/>
       <c r="CT6" s="17"/>
-      <c r="CU6" s="17"/>
-      <c r="CV6" s="17" t="s">
+      <c r="CU6" s="17" t="s">
         <v>92</v>
       </c>
+      <c r="CV6" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="CW6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="CX6" s="18" t="s">
         <v>117</v>
       </c>
+      <c r="CX6" s="4"/>
       <c r="CY6" s="4"/>
       <c r="CZ6" s="4"/>
       <c r="DA6" s="4"/>
       <c r="DB6" s="4"/>
       <c r="DC6" s="4"/>
-      <c r="DD6" s="4"/>
-      <c r="DE6" s="5"/>
+      <c r="DD6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Intl-Alcohol.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/US Exp Intl-Alcohol.xlsx
@@ -446,9 +446,6 @@
     <t>ProcessShipmentRequest.RequestedShipment.ShippingChargesPayment.Payor.ResponsibleParty.Contact</t>
   </si>
   <si>
-    <t xml:space="preserve">ProcessShipmentRequest.RequestedShipment.SpecialServicesRequested  </t>
-  </si>
-  <si>
     <t>ProcessShipmentRequest.RequestedShipment.SpecialServicesRequested.HoldAtLocationDetail</t>
   </si>
   <si>
@@ -532,6 +529,9 @@
   </si>
   <si>
     <t>SaveLabel</t>
+  </si>
+  <si>
+    <t>ProcessShipmentRequest.RequestedShipment.SpecialServicesRequested2</t>
   </si>
 </sst>
 </file>
@@ -2259,10 +2259,10 @@
   </sheetPr>
   <dimension ref="A1:DG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C19" sqref="C19:D19"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2357,7 +2357,7 @@
   <sheetData>
     <row r="1" spans="1:108" s="46" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
@@ -2379,7 +2379,7 @@
         <v>58</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J1" s="41" t="s">
         <v>111</v>
@@ -2445,13 +2445,13 @@
         <v>58</v>
       </c>
       <c r="AE1" s="42" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="AF1" s="42" t="s">
         <v>123</v>
       </c>
       <c r="AG1" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH1" s="44" t="s">
         <v>129</v>
@@ -2520,19 +2520,19 @@
         <v>136</v>
       </c>
       <c r="BD1" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BE1" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BF1" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BG1" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BH1" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BI1" s="41" t="s">
         <v>119</v>
@@ -2544,139 +2544,139 @@
         <v>58</v>
       </c>
       <c r="BL1" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM1" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="BN1" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="BM1" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN1" s="41" t="s">
+      <c r="BO1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="BO1" s="41" t="s">
+      <c r="BP1" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="BP1" s="41" t="s">
+      <c r="BQ1" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="BQ1" s="41" t="s">
+      <c r="BR1" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="BR1" s="42" t="s">
+      <c r="BS1" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="BS1" s="42" t="s">
+      <c r="BT1" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU1" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV1" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW1" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX1" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="BT1" s="42" t="s">
+      <c r="BY1" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="BU1" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="BV1" s="42" t="s">
+      <c r="BZ1" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="BW1" s="42" t="s">
+      <c r="CA1" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="BX1" s="42" t="s">
+      <c r="CB1" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="BY1" s="42" t="s">
+      <c r="CC1" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="CD1" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="CE1" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="BZ1" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="CA1" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="CB1" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="CC1" s="42" t="s">
+      <c r="CF1" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="CD1" s="42" t="s">
+      <c r="CG1" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="CE1" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="CF1" s="42" t="s">
+      <c r="CH1" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="CI1" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="CJ1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="CG1" s="42" t="s">
+      <c r="CK1" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="CH1" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="CI1" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="CJ1" s="42" t="s">
+      <c r="CL1" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM1" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="CN1" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="CK1" s="42" t="s">
+      <c r="CO1" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="CL1" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="CM1" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN1" s="42" t="s">
+      <c r="CP1" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="CO1" s="42" t="s">
+      <c r="CQ1" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="CP1" s="42" t="s">
+      <c r="CR1" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="CS1" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="CT1" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="CU1" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="CQ1" s="42" t="s">
+      <c r="CV1" s="42" t="s">
         <v>160</v>
-      </c>
-      <c r="CR1" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="CS1" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="CT1" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="CU1" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="CV1" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="CW1" s="42" t="s">
         <v>135</v>
       </c>
       <c r="CX1" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="CY1" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="CZ1" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="CY1" s="42" t="s">
+      <c r="DA1" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="CZ1" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="DA1" s="42" t="s">
-        <v>144</v>
-      </c>
       <c r="DB1" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DC1" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DD1" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:108" s="8" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3002,11 +3002,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="47"/>
       <c r="D3" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>27</v>
@@ -3278,7 +3278,7 @@
       <c r="B4" s="64"/>
       <c r="C4" s="13"/>
       <c r="D4" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>27</v>
@@ -3560,7 +3560,7 @@
       <c r="B5" s="64"/>
       <c r="C5" s="13"/>
       <c r="D5" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>27</v>
@@ -3828,7 +3828,7 @@
       <c r="B6" s="65"/>
       <c r="C6" s="35"/>
       <c r="D6" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>27</v>
